--- a/hecCalc/2023/documentum/Total BOQ_blank.xlsx
+++ b/hecCalc/2023/documentum/Total BOQ_blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E40A5-7B67-41B3-80AC-400D1FED11D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5854425-E324-49CC-8635-469031021F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15990" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
   </bookViews>
@@ -37458,10 +37458,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K257"/>
+  <dimension ref="A1:K248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37674,7 +37674,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="10"/>
       <c r="H10" s="13">
-        <f t="shared" ref="H10:H73" si="0">SUM(I10:K10)</f>
+        <f t="shared" ref="H10:H62" si="0">SUM(I10:K10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="13"/>
@@ -38097,7 +38097,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
       <c r="H33" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H33:H34" si="1">SUM(I33:K33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="13"/>
@@ -38113,7 +38113,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
       <c r="H34" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="13"/>
@@ -38185,20 +38185,31 @@
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="A39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
@@ -38233,31 +38244,20 @@
       <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
@@ -38268,7 +38268,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="10"/>
       <c r="H43" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H43:H44" si="2">SUM(I43:K43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="13"/>
@@ -38284,7 +38284,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
       <c r="H44" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="13"/>
@@ -38340,20 +38340,31 @@
       <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
+      <c r="A48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
@@ -38396,7 +38407,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="10"/>
       <c r="H51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H51:H52" si="3">SUM(I51:K51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="13"/>
@@ -38412,7 +38423,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="10"/>
       <c r="H52" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I52" s="13"/>
@@ -38436,31 +38447,20 @@
       <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
@@ -38495,20 +38495,31 @@
       <c r="K56" s="13"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="A57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
@@ -38591,36 +38602,58 @@
       <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
+      <c r="A63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
+      <c r="A64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
@@ -38631,7 +38664,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
       <c r="H65" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H65:H128" si="4">SUM(I65:K65)</f>
         <v>0</v>
       </c>
       <c r="I65" s="13"/>
@@ -38639,31 +38672,20 @@
       <c r="K65" s="13"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
@@ -38674,7 +38696,7 @@
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
       <c r="H67" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I67" s="13"/>
@@ -38690,7 +38712,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
       <c r="H68" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I68" s="13"/>
@@ -38706,7 +38728,7 @@
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
       <c r="H69" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I69" s="13"/>
@@ -38722,7 +38744,7 @@
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
       <c r="H70" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I70" s="13"/>
@@ -38738,7 +38760,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
       <c r="H71" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I71" s="13"/>
@@ -38746,31 +38768,20 @@
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
@@ -38780,7 +38791,7 @@
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>18</v>
@@ -38808,7 +38819,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
       <c r="H74" s="13">
-        <f t="shared" ref="H74:H137" si="1">SUM(I74:K74)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I74" s="13"/>
@@ -38824,7 +38835,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
       <c r="H75" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I75" s="13"/>
@@ -38840,7 +38851,7 @@
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
       <c r="H76" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I76" s="13"/>
@@ -38856,7 +38867,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
       <c r="H77" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I77" s="13"/>
@@ -38872,7 +38883,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
       <c r="H78" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I78" s="13"/>
@@ -38888,7 +38899,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
       <c r="H79" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I79" s="13"/>
@@ -38904,7 +38915,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
       <c r="H80" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I80" s="13"/>
@@ -38920,7 +38931,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
       <c r="H81" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I81" s="13"/>
@@ -38928,31 +38939,20 @@
       <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
@@ -38963,7 +38963,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
       <c r="H83" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I83" s="13"/>
@@ -38979,7 +38979,7 @@
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
       <c r="H84" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I84" s="13"/>
@@ -38995,7 +38995,7 @@
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
       <c r="H85" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I85" s="13"/>
@@ -39011,7 +39011,7 @@
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
       <c r="H86" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I86" s="13"/>
@@ -39027,7 +39027,7 @@
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
       <c r="H87" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I87" s="13"/>
@@ -39043,7 +39043,7 @@
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
       <c r="H88" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I88" s="13"/>
@@ -39059,7 +39059,7 @@
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
       <c r="H89" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I89" s="13"/>
@@ -39075,7 +39075,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
       <c r="H90" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I90" s="13"/>
@@ -39083,20 +39083,31 @@
       <c r="K90" s="13"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
+      <c r="A91" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
@@ -39107,7 +39118,7 @@
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
       <c r="H92" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I92" s="13"/>
@@ -39123,7 +39134,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="10"/>
       <c r="H93" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I93" s="13"/>
@@ -39139,7 +39150,7 @@
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
       <c r="H94" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I94" s="13"/>
@@ -39155,7 +39166,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="10"/>
       <c r="H95" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I95" s="13"/>
@@ -39171,7 +39182,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="10"/>
       <c r="H96" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I96" s="13"/>
@@ -39187,7 +39198,7 @@
       <c r="F97" s="11"/>
       <c r="G97" s="10"/>
       <c r="H97" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I97" s="13"/>
@@ -39203,7 +39214,7 @@
       <c r="F98" s="11"/>
       <c r="G98" s="10"/>
       <c r="H98" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I98" s="13"/>
@@ -39219,7 +39230,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="10"/>
       <c r="H99" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I99" s="13"/>
@@ -39227,47 +39238,47 @@
       <c r="K99" s="13"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
+      <c r="A101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
@@ -39278,7 +39289,7 @@
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
       <c r="H102" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I102" s="13"/>
@@ -39294,7 +39305,7 @@
       <c r="F103" s="11"/>
       <c r="G103" s="10"/>
       <c r="H103" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I103" s="13"/>
@@ -39310,7 +39321,7 @@
       <c r="F104" s="11"/>
       <c r="G104" s="10"/>
       <c r="H104" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I104" s="13"/>
@@ -39326,7 +39337,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="10"/>
       <c r="H105" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I105" s="13"/>
@@ -39342,7 +39353,7 @@
       <c r="F106" s="11"/>
       <c r="G106" s="10"/>
       <c r="H106" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I106" s="13"/>
@@ -39358,7 +39369,7 @@
       <c r="F107" s="11"/>
       <c r="G107" s="10"/>
       <c r="H107" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I107" s="13"/>
@@ -39374,7 +39385,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="10"/>
       <c r="H108" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I108" s="13"/>
@@ -39382,47 +39393,47 @@
       <c r="K108" s="13"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
+      <c r="A109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
@@ -39433,7 +39444,7 @@
       <c r="F111" s="11"/>
       <c r="G111" s="10"/>
       <c r="H111" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I111" s="13"/>
@@ -39449,7 +39460,7 @@
       <c r="F112" s="11"/>
       <c r="G112" s="10"/>
       <c r="H112" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I112" s="13"/>
@@ -39465,7 +39476,7 @@
       <c r="F113" s="11"/>
       <c r="G113" s="10"/>
       <c r="H113" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I113" s="13"/>
@@ -39481,7 +39492,7 @@
       <c r="F114" s="11"/>
       <c r="G114" s="10"/>
       <c r="H114" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I114" s="13"/>
@@ -39497,7 +39508,7 @@
       <c r="F115" s="11"/>
       <c r="G115" s="10"/>
       <c r="H115" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I115" s="13"/>
@@ -39513,7 +39524,7 @@
       <c r="F116" s="11"/>
       <c r="G116" s="10"/>
       <c r="H116" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I116" s="13"/>
@@ -39529,7 +39540,7 @@
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
       <c r="H117" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I117" s="13"/>
@@ -39537,31 +39548,20 @@
       <c r="K117" s="13"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
@@ -39572,7 +39572,7 @@
       <c r="F119" s="11"/>
       <c r="G119" s="10"/>
       <c r="H119" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I119" s="13"/>
@@ -39588,7 +39588,7 @@
       <c r="F120" s="11"/>
       <c r="G120" s="10"/>
       <c r="H120" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I120" s="13"/>
@@ -39604,7 +39604,7 @@
       <c r="F121" s="11"/>
       <c r="G121" s="10"/>
       <c r="H121" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I121" s="13"/>
@@ -39620,7 +39620,7 @@
       <c r="F122" s="11"/>
       <c r="G122" s="10"/>
       <c r="H122" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I122" s="13"/>
@@ -39636,7 +39636,7 @@
       <c r="F123" s="11"/>
       <c r="G123" s="10"/>
       <c r="H123" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I123" s="13"/>
@@ -39644,20 +39644,31 @@
       <c r="K123" s="13"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
+      <c r="A124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
@@ -39668,7 +39679,7 @@
       <c r="F125" s="11"/>
       <c r="G125" s="10"/>
       <c r="H125" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I125" s="13"/>
@@ -39684,7 +39695,7 @@
       <c r="F126" s="11"/>
       <c r="G126" s="10"/>
       <c r="H126" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I126" s="13"/>
@@ -39700,7 +39711,7 @@
       <c r="F127" s="11"/>
       <c r="G127" s="10"/>
       <c r="H127" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I127" s="13"/>
@@ -39716,7 +39727,7 @@
       <c r="F128" s="11"/>
       <c r="G128" s="10"/>
       <c r="H128" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I128" s="13"/>
@@ -39732,7 +39743,7 @@
       <c r="F129" s="11"/>
       <c r="G129" s="10"/>
       <c r="H129" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H129:H191" si="5">SUM(I129:K129)</f>
         <v>0</v>
       </c>
       <c r="I129" s="13"/>
@@ -39748,7 +39759,7 @@
       <c r="F130" s="11"/>
       <c r="G130" s="10"/>
       <c r="H130" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I130" s="13"/>
@@ -39764,7 +39775,7 @@
       <c r="F131" s="11"/>
       <c r="G131" s="10"/>
       <c r="H131" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I131" s="13"/>
@@ -39780,7 +39791,7 @@
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
       <c r="H132" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I132" s="13"/>
@@ -39788,31 +39799,20 @@
       <c r="K132" s="13"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
@@ -39823,7 +39823,7 @@
       <c r="F134" s="11"/>
       <c r="G134" s="10"/>
       <c r="H134" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I134" s="13"/>
@@ -39839,7 +39839,7 @@
       <c r="F135" s="11"/>
       <c r="G135" s="10"/>
       <c r="H135" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I135" s="13"/>
@@ -39855,7 +39855,7 @@
       <c r="F136" s="11"/>
       <c r="G136" s="10"/>
       <c r="H136" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I136" s="13"/>
@@ -39871,7 +39871,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="10"/>
       <c r="H137" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I137" s="13"/>
@@ -39887,7 +39887,7 @@
       <c r="F138" s="11"/>
       <c r="G138" s="10"/>
       <c r="H138" s="13">
-        <f t="shared" ref="H138:H201" si="2">SUM(I138:K138)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I138" s="13"/>
@@ -39903,7 +39903,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="10"/>
       <c r="H139" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I139" s="13"/>
@@ -39919,7 +39919,7 @@
       <c r="F140" s="11"/>
       <c r="G140" s="10"/>
       <c r="H140" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I140" s="13"/>
@@ -39935,7 +39935,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="10"/>
       <c r="H141" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I141" s="13"/>
@@ -39951,7 +39951,7 @@
       <c r="F142" s="11"/>
       <c r="G142" s="10"/>
       <c r="H142" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I142" s="13"/>
@@ -39967,7 +39967,7 @@
       <c r="F143" s="11"/>
       <c r="G143" s="10"/>
       <c r="H143" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I143" s="13"/>
@@ -39983,7 +39983,7 @@
       <c r="F144" s="11"/>
       <c r="G144" s="10"/>
       <c r="H144" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I144" s="13"/>
@@ -39999,7 +39999,7 @@
       <c r="F145" s="11"/>
       <c r="G145" s="10"/>
       <c r="H145" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I145" s="13"/>
@@ -40007,20 +40007,31 @@
       <c r="K145" s="13"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="13"/>
+      <c r="A146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
@@ -40031,7 +40042,7 @@
       <c r="F147" s="11"/>
       <c r="G147" s="10"/>
       <c r="H147" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I147" s="13"/>
@@ -40047,7 +40058,7 @@
       <c r="F148" s="11"/>
       <c r="G148" s="10"/>
       <c r="H148" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I148" s="13"/>
@@ -40063,7 +40074,7 @@
       <c r="F149" s="11"/>
       <c r="G149" s="10"/>
       <c r="H149" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I149" s="13"/>
@@ -40079,7 +40090,7 @@
       <c r="F150" s="11"/>
       <c r="G150" s="10"/>
       <c r="H150" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I150" s="13"/>
@@ -40095,7 +40106,7 @@
       <c r="F151" s="11"/>
       <c r="G151" s="10"/>
       <c r="H151" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I151" s="13"/>
@@ -40111,7 +40122,7 @@
       <c r="F152" s="11"/>
       <c r="G152" s="10"/>
       <c r="H152" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I152" s="13"/>
@@ -40127,7 +40138,7 @@
       <c r="F153" s="11"/>
       <c r="G153" s="10"/>
       <c r="H153" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I153" s="13"/>
@@ -40143,7 +40154,7 @@
       <c r="F154" s="11"/>
       <c r="G154" s="10"/>
       <c r="H154" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I154" s="13"/>
@@ -40151,31 +40162,20 @@
       <c r="K154" s="13"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
@@ -40186,7 +40186,7 @@
       <c r="F156" s="11"/>
       <c r="G156" s="10"/>
       <c r="H156" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I156" s="13"/>
@@ -40202,7 +40202,7 @@
       <c r="F157" s="11"/>
       <c r="G157" s="10"/>
       <c r="H157" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I157" s="13"/>
@@ -40218,7 +40218,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
       <c r="H158" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I158" s="13"/>
@@ -40234,7 +40234,7 @@
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
       <c r="H159" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I159" s="13"/>
@@ -40242,20 +40242,31 @@
       <c r="K159" s="13"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
+      <c r="A160" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
@@ -40266,7 +40277,7 @@
       <c r="F161" s="11"/>
       <c r="G161" s="10"/>
       <c r="H161" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I161" s="13"/>
@@ -40282,7 +40293,7 @@
       <c r="F162" s="11"/>
       <c r="G162" s="10"/>
       <c r="H162" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I162" s="13"/>
@@ -40298,7 +40309,7 @@
       <c r="F163" s="11"/>
       <c r="G163" s="10"/>
       <c r="H163" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I163" s="13"/>
@@ -40314,7 +40325,7 @@
       <c r="F164" s="11"/>
       <c r="G164" s="10"/>
       <c r="H164" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I164" s="13"/>
@@ -40330,7 +40341,7 @@
       <c r="F165" s="11"/>
       <c r="G165" s="10"/>
       <c r="H165" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I165" s="13"/>
@@ -40346,7 +40357,7 @@
       <c r="F166" s="11"/>
       <c r="G166" s="10"/>
       <c r="H166" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I166" s="13"/>
@@ -40362,7 +40373,7 @@
       <c r="F167" s="11"/>
       <c r="G167" s="10"/>
       <c r="H167" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I167" s="13"/>
@@ -40370,47 +40381,47 @@
       <c r="K167" s="13"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I168" s="13"/>
-      <c r="J168" s="13"/>
-      <c r="K168" s="13"/>
+      <c r="A168" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H169" s="9"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
-      <c r="K169" s="9"/>
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
@@ -40421,7 +40432,7 @@
       <c r="F170" s="11"/>
       <c r="G170" s="10"/>
       <c r="H170" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I170" s="13"/>
@@ -40437,7 +40448,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="10"/>
       <c r="H171" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I171" s="13"/>
@@ -40453,7 +40464,7 @@
       <c r="F172" s="11"/>
       <c r="G172" s="10"/>
       <c r="H172" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I172" s="13"/>
@@ -40469,7 +40480,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="10"/>
       <c r="H173" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I173" s="13"/>
@@ -40485,7 +40496,7 @@
       <c r="F174" s="11"/>
       <c r="G174" s="10"/>
       <c r="H174" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I174" s="13"/>
@@ -40501,7 +40512,7 @@
       <c r="F175" s="11"/>
       <c r="G175" s="10"/>
       <c r="H175" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I175" s="13"/>
@@ -40517,7 +40528,7 @@
       <c r="F176" s="11"/>
       <c r="G176" s="10"/>
       <c r="H176" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I176" s="13"/>
@@ -40525,31 +40536,20 @@
       <c r="K176" s="13"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
-      <c r="K177" s="9"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
@@ -40560,7 +40560,7 @@
       <c r="F178" s="11"/>
       <c r="G178" s="10"/>
       <c r="H178" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I178" s="13"/>
@@ -40576,7 +40576,7 @@
       <c r="F179" s="11"/>
       <c r="G179" s="10"/>
       <c r="H179" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I179" s="13"/>
@@ -40592,7 +40592,7 @@
       <c r="F180" s="11"/>
       <c r="G180" s="10"/>
       <c r="H180" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I180" s="13"/>
@@ -40608,7 +40608,7 @@
       <c r="F181" s="11"/>
       <c r="G181" s="10"/>
       <c r="H181" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I181" s="13"/>
@@ -40624,7 +40624,7 @@
       <c r="F182" s="11"/>
       <c r="G182" s="10"/>
       <c r="H182" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I182" s="13"/>
@@ -40640,7 +40640,7 @@
       <c r="F183" s="11"/>
       <c r="G183" s="10"/>
       <c r="H183" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I183" s="13"/>
@@ -40656,7 +40656,7 @@
       <c r="F184" s="11"/>
       <c r="G184" s="10"/>
       <c r="H184" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I184" s="13"/>
@@ -40672,7 +40672,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="10"/>
       <c r="H185" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I185" s="13"/>
@@ -40688,7 +40688,7 @@
       <c r="F186" s="11"/>
       <c r="G186" s="10"/>
       <c r="H186" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I186" s="13"/>
@@ -40704,7 +40704,7 @@
       <c r="F187" s="11"/>
       <c r="G187" s="10"/>
       <c r="H187" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I187" s="13"/>
@@ -40720,7 +40720,7 @@
       <c r="F188" s="11"/>
       <c r="G188" s="10"/>
       <c r="H188" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I188" s="13"/>
@@ -40736,7 +40736,7 @@
       <c r="F189" s="11"/>
       <c r="G189" s="10"/>
       <c r="H189" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I189" s="13"/>
@@ -40752,7 +40752,7 @@
       <c r="F190" s="11"/>
       <c r="G190" s="10"/>
       <c r="H190" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I190" s="13"/>
@@ -40768,7 +40768,7 @@
       <c r="F191" s="11"/>
       <c r="G191" s="10"/>
       <c r="H191" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I191" s="13"/>
@@ -40776,20 +40776,31 @@
       <c r="K191" s="13"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="10"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I192" s="13"/>
-      <c r="J192" s="13"/>
-      <c r="K192" s="13"/>
+      <c r="A192" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="9"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
@@ -40800,7 +40811,7 @@
       <c r="F193" s="11"/>
       <c r="G193" s="10"/>
       <c r="H193" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H193:H248" si="6">SUM(I193:K193)</f>
         <v>0</v>
       </c>
       <c r="I193" s="13"/>
@@ -40816,7 +40827,7 @@
       <c r="F194" s="11"/>
       <c r="G194" s="10"/>
       <c r="H194" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I194" s="13"/>
@@ -40832,7 +40843,7 @@
       <c r="F195" s="11"/>
       <c r="G195" s="10"/>
       <c r="H195" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I195" s="13"/>
@@ -40848,7 +40859,7 @@
       <c r="F196" s="11"/>
       <c r="G196" s="10"/>
       <c r="H196" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I196" s="13"/>
@@ -40856,36 +40867,58 @@
       <c r="K196" s="13"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="10"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I197" s="13"/>
-      <c r="J197" s="13"/>
-      <c r="K197" s="13"/>
+      <c r="A197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A198" s="10"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I198" s="13"/>
-      <c r="J198" s="13"/>
-      <c r="K198" s="13"/>
+      <c r="A198" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
@@ -40896,7 +40929,7 @@
       <c r="F199" s="11"/>
       <c r="G199" s="10"/>
       <c r="H199" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I199" s="13"/>
@@ -40912,7 +40945,7 @@
       <c r="F200" s="11"/>
       <c r="G200" s="10"/>
       <c r="H200" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I200" s="13"/>
@@ -40920,31 +40953,20 @@
       <c r="K200" s="13"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H201" s="9"/>
-      <c r="I201" s="9"/>
-      <c r="J201" s="9"/>
-      <c r="K201" s="9"/>
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
+      <c r="K201" s="13"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
@@ -40955,7 +40977,7 @@
       <c r="F202" s="11"/>
       <c r="G202" s="10"/>
       <c r="H202" s="13">
-        <f t="shared" ref="H202:H257" si="3">SUM(I202:K202)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I202" s="13"/>
@@ -40971,7 +40993,7 @@
       <c r="F203" s="11"/>
       <c r="G203" s="10"/>
       <c r="H203" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I203" s="13"/>
@@ -40987,7 +41009,7 @@
       <c r="F204" s="11"/>
       <c r="G204" s="10"/>
       <c r="H204" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I204" s="13"/>
@@ -41003,7 +41025,7 @@
       <c r="F205" s="11"/>
       <c r="G205" s="10"/>
       <c r="H205" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I205" s="13"/>
@@ -41011,58 +41033,36 @@
       <c r="K205" s="13"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5"/>
-      <c r="K206" s="5"/>
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="13"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A207" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H207" s="9"/>
-      <c r="I207" s="9"/>
-      <c r="J207" s="9"/>
-      <c r="K207" s="9"/>
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
+      <c r="K207" s="13"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
@@ -41073,7 +41073,7 @@
       <c r="F208" s="11"/>
       <c r="G208" s="10"/>
       <c r="H208" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I208" s="13"/>
@@ -41081,36 +41081,58 @@
       <c r="K208" s="13"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A209" s="10"/>
-      <c r="B209" s="10"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="11"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I209" s="13"/>
-      <c r="J209" s="13"/>
-      <c r="K209" s="13"/>
+      <c r="A209" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I210" s="13"/>
-      <c r="J210" s="13"/>
-      <c r="K210" s="13"/>
+      <c r="A210" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
@@ -41121,7 +41143,7 @@
       <c r="F211" s="11"/>
       <c r="G211" s="10"/>
       <c r="H211" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I211" s="13"/>
@@ -41137,7 +41159,7 @@
       <c r="F212" s="11"/>
       <c r="G212" s="10"/>
       <c r="H212" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I212" s="13"/>
@@ -41153,7 +41175,7 @@
       <c r="F213" s="11"/>
       <c r="G213" s="10"/>
       <c r="H213" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I213" s="13"/>
@@ -41169,7 +41191,7 @@
       <c r="F214" s="11"/>
       <c r="G214" s="10"/>
       <c r="H214" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I214" s="13"/>
@@ -41185,7 +41207,7 @@
       <c r="F215" s="11"/>
       <c r="G215" s="10"/>
       <c r="H215" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I215" s="13"/>
@@ -41201,7 +41223,7 @@
       <c r="F216" s="11"/>
       <c r="G216" s="10"/>
       <c r="H216" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I216" s="13"/>
@@ -41217,7 +41239,7 @@
       <c r="F217" s="11"/>
       <c r="G217" s="10"/>
       <c r="H217" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I217" s="13"/>
@@ -41225,90 +41247,90 @@
       <c r="K217" s="13"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5"/>
-      <c r="K218" s="5"/>
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
+      <c r="K218" s="13"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H219" s="9"/>
-      <c r="I219" s="9"/>
-      <c r="J219" s="9"/>
-      <c r="K219" s="9"/>
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I219" s="13"/>
+      <c r="J219" s="13"/>
+      <c r="K219" s="13"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="11"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I220" s="13"/>
-      <c r="J220" s="13"/>
-      <c r="K220" s="13"/>
+      <c r="A220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A221" s="10"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="11"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I221" s="13"/>
-      <c r="J221" s="13"/>
-      <c r="K221" s="13"/>
+      <c r="A221" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="9"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
@@ -41319,7 +41341,7 @@
       <c r="F222" s="11"/>
       <c r="G222" s="10"/>
       <c r="H222" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I222" s="13"/>
@@ -41335,7 +41357,7 @@
       <c r="F223" s="11"/>
       <c r="G223" s="10"/>
       <c r="H223" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I223" s="13"/>
@@ -41351,7 +41373,7 @@
       <c r="F224" s="11"/>
       <c r="G224" s="10"/>
       <c r="H224" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I224" s="13"/>
@@ -41367,7 +41389,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="10"/>
       <c r="H225" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I225" s="13"/>
@@ -41383,7 +41405,7 @@
       <c r="F226" s="11"/>
       <c r="G226" s="10"/>
       <c r="H226" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I226" s="13"/>
@@ -41399,7 +41421,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="10"/>
       <c r="H227" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I227" s="13"/>
@@ -41415,7 +41437,7 @@
       <c r="F228" s="11"/>
       <c r="G228" s="10"/>
       <c r="H228" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I228" s="13"/>
@@ -41423,58 +41445,36 @@
       <c r="K228" s="13"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
-      <c r="J229" s="5"/>
-      <c r="K229" s="5"/>
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I229" s="13"/>
+      <c r="J229" s="13"/>
+      <c r="K229" s="13"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H230" s="9"/>
-      <c r="I230" s="9"/>
-      <c r="J230" s="9"/>
-      <c r="K230" s="9"/>
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13"/>
+      <c r="K230" s="13"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
@@ -41485,7 +41485,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="10"/>
       <c r="H231" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I231" s="13"/>
@@ -41493,36 +41493,58 @@
       <c r="K231" s="13"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A232" s="10"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="11"/>
-      <c r="G232" s="10"/>
-      <c r="H232" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I232" s="13"/>
-      <c r="J232" s="13"/>
-      <c r="K232" s="13"/>
+      <c r="A232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A233" s="10"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="12"/>
-      <c r="E233" s="12"/>
-      <c r="F233" s="11"/>
-      <c r="G233" s="10"/>
-      <c r="H233" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I233" s="13"/>
-      <c r="J233" s="13"/>
-      <c r="K233" s="13"/>
+      <c r="A233" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H233" s="9"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="9"/>
+      <c r="K233" s="9"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="10"/>
@@ -41533,7 +41555,7 @@
       <c r="F234" s="11"/>
       <c r="G234" s="10"/>
       <c r="H234" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I234" s="13"/>
@@ -41549,7 +41571,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="10"/>
       <c r="H235" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I235" s="13"/>
@@ -41565,7 +41587,7 @@
       <c r="F236" s="11"/>
       <c r="G236" s="10"/>
       <c r="H236" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I236" s="13"/>
@@ -41581,7 +41603,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="10"/>
       <c r="H237" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I237" s="13"/>
@@ -41597,7 +41619,7 @@
       <c r="F238" s="11"/>
       <c r="G238" s="10"/>
       <c r="H238" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I238" s="13"/>
@@ -41613,7 +41635,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="10"/>
       <c r="H239" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I239" s="13"/>
@@ -41629,7 +41651,7 @@
       <c r="F240" s="11"/>
       <c r="G240" s="10"/>
       <c r="H240" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I240" s="13"/>
@@ -41637,74 +41659,74 @@
       <c r="K240" s="13"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="5"/>
-      <c r="K241" s="5"/>
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I241" s="13"/>
+      <c r="J241" s="13"/>
+      <c r="K241" s="13"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
+      <c r="A242" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D242" s="8" t="s">
+      <c r="C242" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D242" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E242" s="8" t="s">
+      <c r="E242" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F242" s="7" t="s">
+      <c r="F242" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G242" s="6" t="s">
+      <c r="G242" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H242" s="9"/>
-      <c r="I242" s="9"/>
-      <c r="J242" s="9"/>
-      <c r="K242" s="9"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A243" s="10"/>
-      <c r="B243" s="10"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="11"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I243" s="13"/>
-      <c r="J243" s="13"/>
-      <c r="K243" s="13"/>
+      <c r="A243" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="9"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="9"/>
+      <c r="K243" s="9"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
@@ -41715,7 +41737,7 @@
       <c r="F244" s="11"/>
       <c r="G244" s="10"/>
       <c r="H244" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I244" s="13"/>
@@ -41731,7 +41753,7 @@
       <c r="F245" s="11"/>
       <c r="G245" s="10"/>
       <c r="H245" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I245" s="13"/>
@@ -41747,7 +41769,7 @@
       <c r="F246" s="11"/>
       <c r="G246" s="10"/>
       <c r="H246" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I246" s="13"/>
@@ -41763,7 +41785,7 @@
       <c r="F247" s="11"/>
       <c r="G247" s="10"/>
       <c r="H247" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I247" s="13"/>
@@ -41779,178 +41801,12 @@
       <c r="F248" s="11"/>
       <c r="G248" s="10"/>
       <c r="H248" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I248" s="13"/>
       <c r="J248" s="13"/>
       <c r="K248" s="13"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A249" s="10"/>
-      <c r="B249" s="10"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="11"/>
-      <c r="G249" s="10"/>
-      <c r="H249" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I249" s="13"/>
-      <c r="J249" s="13"/>
-      <c r="K249" s="13"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A250" s="10"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-      <c r="F250" s="11"/>
-      <c r="G250" s="10"/>
-      <c r="H250" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I250" s="13"/>
-      <c r="J250" s="13"/>
-      <c r="K250" s="13"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A251" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H251" s="5"/>
-      <c r="I251" s="5"/>
-      <c r="J251" s="5"/>
-      <c r="K251" s="5"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A252" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E252" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F252" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G252" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H252" s="9"/>
-      <c r="I252" s="9"/>
-      <c r="J252" s="9"/>
-      <c r="K252" s="9"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A253" s="10"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="11"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
-      <c r="F253" s="11"/>
-      <c r="G253" s="10"/>
-      <c r="H253" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I253" s="13"/>
-      <c r="J253" s="13"/>
-      <c r="K253" s="13"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A254" s="10"/>
-      <c r="B254" s="10"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="11"/>
-      <c r="G254" s="10"/>
-      <c r="H254" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I254" s="13"/>
-      <c r="J254" s="13"/>
-      <c r="K254" s="13"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255" s="10"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
-      <c r="F255" s="11"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I255" s="13"/>
-      <c r="J255" s="13"/>
-      <c r="K255" s="13"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A256" s="10"/>
-      <c r="B256" s="10"/>
-      <c r="C256" s="11"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
-      <c r="F256" s="11"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I256" s="13"/>
-      <c r="J256" s="13"/>
-      <c r="K256" s="13"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A257" s="10"/>
-      <c r="B257" s="10"/>
-      <c r="C257" s="11"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="12"/>
-      <c r="F257" s="11"/>
-      <c r="G257" s="10"/>
-      <c r="H257" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I257" s="13"/>
-      <c r="J257" s="13"/>
-      <c r="K257" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/hecCalc/2023/documentum/Total BOQ_blank.xlsx
+++ b/hecCalc/2023/documentum/Total BOQ_blank.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5854425-E324-49CC-8635-469031021F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A839EE-B493-49A0-9F48-978F889F9078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15990" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
   </bookViews>
   <sheets>
-    <sheet name="(AR) BOQ" sheetId="1" r:id="rId1"/>
+    <sheet name="(AR) BOQ View (Working)" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -1805,114 +1805,6 @@
     <t>Spec.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Additional Spec.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reference to
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UoM</t>
   </si>
   <si>
@@ -2031,12 +1923,18 @@
   <si>
     <t>Miscellaneous Steel Erection Work</t>
   </si>
+  <si>
+    <t>Additional Spec.</t>
+  </si>
+  <si>
+    <t>Reference to</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2066,19 +1964,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0000CC"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0000CC"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2155,43 +2040,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2203,7 +2088,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -37461,7 +37346,7 @@
   <dimension ref="A1:K248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37521,19 +37406,19 @@
         <v>4</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="I3" s="17" t="s">
         <v>7</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
@@ -37548,13 +37433,13 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -37567,13 +37452,13 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -37586,36 +37471,36 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -37624,25 +37509,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -37795,25 +37680,25 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -37822,25 +37707,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -37929,25 +37814,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -38004,25 +37889,25 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -38031,25 +37916,25 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -38186,25 +38071,25 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -38341,25 +38226,25 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -38496,25 +38381,25 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -38603,25 +38488,25 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -38630,25 +38515,25 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -38785,25 +38670,25 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -39084,25 +38969,25 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
@@ -39255,25 +39140,25 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
@@ -39394,25 +39279,25 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
@@ -39645,25 +39530,25 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -40008,25 +39893,25 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
@@ -40243,25 +40128,25 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
@@ -40382,25 +40267,25 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
@@ -40777,25 +40662,25 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
@@ -40868,25 +40753,25 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
@@ -40895,25 +40780,25 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="D198" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
@@ -41082,25 +40967,25 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
@@ -41109,25 +40994,25 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H210" s="9"/>
       <c r="I210" s="9"/>
@@ -41280,25 +41165,25 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
@@ -41307,25 +41192,25 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H221" s="9"/>
       <c r="I221" s="9"/>
@@ -41494,25 +41379,25 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
@@ -41521,25 +41406,25 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
@@ -41676,25 +41561,25 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
@@ -41703,25 +41588,25 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H243" s="9"/>
       <c r="I243" s="9"/>
